--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Ingredientes culinarios.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Ingredientes culinarios.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,6 +479,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9698c85-a309-4125-8c05-ffd12a2dad82.jpg</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891000451304</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -488,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aroma De Baunilha Wally 30ml</t>
+          <t>Granulado Mesclado Dr Oetker 130 Gr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -498,7 +508,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e798f647-8942-4eee-a0ac-0db8898c6314.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1dd7bc8-b0ae-4320-9d57-59875885bd3c.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891048014035</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Granulado Dori 120g Chocolate</t>
+          <t>Granulado Choco Macio Dr Oetker 130 Gr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0564aa7c-60ba-4aed-96b0-f2c51edbae37.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2593d36d-7c63-4156-ae7c-fdccb8f84470.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891048014004</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chocolate Em Po 100% Cacau Dr Oetker 150gr</t>
+          <t>Confeito Oetker Decor Festa Estre. 80g</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 31,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6074eb50-5dfc-43d2-b18b-900026c0e8df.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0dd1929-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891048014011</t>
         </is>
       </c>
     </row>
@@ -569,7 +594,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cacau Em Pó Alcal Qualicau Sachê 200g 100%</t>
+          <t>Choc Em Po Dr Oetker 200g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -579,7 +604,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a3b1569-b49b-4c80-b11f-a06a57c5d67f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b09cffc1-4933-498c-be47-2b09bf790013.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891048000090</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Essencia Baunilha Cepera 30ml</t>
+          <t>Granulado Miçanga Dr Oetker 80g</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5914b976-7fde-44ef-bde6-26fb91b9df55.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7bb9bde-49ce-4328-8841-50029411246e.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891048014110</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Granulado Choco Macio Dr Oetker 130 Gr</t>
+          <t>Chocolate Em Po 100% Cacau Dr Oetker 150gr</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 31,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2593d36d-7c63-4156-ae7c-fdccb8f84470.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6074eb50-5dfc-43d2-b18b-900026c0e8df.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891048000427</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chocolate Em Pó Nestle 200g 100% Cacau</t>
+          <t>Granulado Dori 120g Chocolate</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 46,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd71e0c0-b765-453f-813b-0e9798f7f373.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0564aa7c-60ba-4aed-96b0-f2c51edbae37.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896058599473</t>
         </is>
       </c>
     </row>
@@ -677,7 +722,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Choc Em Po Dr Oetker 200g</t>
+          <t>Cacau Em Pó Alcal Qualicau Sachê 200g 100%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -687,88 +732,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b09cffc1-4933-498c-be47-2b09bf790013.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Ingredientes culinarios</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Granulado Mesclado Dr Oetker 130 Gr</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1dd7bc8-b0ae-4320-9d57-59875885bd3c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ingredientes culinarios</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Granulado Miçanga Dr Oetker 80g</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7bb9bde-49ce-4328-8841-50029411246e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Ingredientes culinarios</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Confeito Oetker Decor Festa Estre. 80g</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0dd1929-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a3b1569-b49b-4c80-b11f-a06a57c5d67f.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896552906258</t>
         </is>
       </c>
     </row>
